--- a/仕様/20170114_武器仕様.xlsx
+++ b/仕様/20170114_武器仕様.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20180" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="武器 物理系" sheetId="1" r:id="rId1"/>
     <sheet name="武器 光学系" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="武器 その他" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -146,158 +150,6 @@
   </si>
   <si>
     <t>Explosive Canon mk1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>電力供給</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lv1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-余剰電力量によって性能変化する。
-余剰を[i]とすると(iの上限は3)、
-[基本単発火力 : 100 + 30 * i]
-[基本攻撃間隔 : 4 - 2 * (i - 2)]
-[基本弾速 : 40 + 10 * (i - 1)]
-[基本射程 : 80 + 20 * (i - 1)]</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>デンリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョウキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨジョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>デンリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>セイノウヘンカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヨジョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="47" eb="53">
-      <t>キホンタンパツカリョク</t>
-    </rPh>
-    <rPh sb="71" eb="77">
-      <t>キホンコウゲキカンカク</t>
-    </rPh>
-    <rPh sb="98" eb="102">
-      <t>キホンダンソク</t>
-    </rPh>
-    <rPh sb="125" eb="129">
-      <t>キホンシャテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>電力供給</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lv2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-余剰電力量によって性能変化する。
-余剰を[i]とすると(iの上限は5)、
-[基本単発火力 : 120 + 40 * i]
-[基本攻撃間隔 : 6 - 1 * (i - 2)]
-[基本弾速 : 50 + 10 * (i - 1)]
-[基本射程 : 90 + 15 * (i - 1)]</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>デンリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョウキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨジョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>デンリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>セイノウヘンカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヨジョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="47" eb="53">
-      <t>キホンタンパツカリョク</t>
-    </rPh>
-    <rPh sb="71" eb="77">
-      <t>キホンコウゲキカンカク</t>
-    </rPh>
-    <rPh sb="98" eb="102">
-      <t>キホンダンソク</t>
-    </rPh>
-    <rPh sb="125" eb="129">
-      <t>キホンシャテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -357,44 +209,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>弱点特効 lv2</t>
+      <t>ハッキング</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-弱点にヒットした場合さらに追加ダメージを与える
-[追加ダメージ : 300%]</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジャクテン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トッコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジャクテン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -402,16 +218,6 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ハッキング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> lv1</t>
@@ -459,7 +265,8 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> lv2</t>
@@ -618,8 +425,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>[追加ダメージ : 150%]</t>
@@ -673,8 +479,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>[追加ダメージ : 200%]</t>
@@ -773,13 +578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダメージ間隔</t>
-    <rPh sb="4" eb="6">
-      <t>カンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基本単発ダメージ</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -830,6 +628,532 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>ショウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spike Beam mk1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spike Beam mk2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heavy Beam mk1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heavy Beam mk2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本ヒット数</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Neutral Beam mk1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Neutral Beam mk2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弱点特効 lv2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+弱点にヒットした場合さらに追加ダメージを与える
+[追加ダメージ : 400%]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジャクテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トッコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジャクテン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heat Beam mk1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heat Beam mk2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">熱 lv2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ヒットした距離が近ければ近いほど追加でダメージを与える。
+ヒットした距離を[ｄ]とし(dの最小値は2)、基本射程を[dMax]とすると、
+[追加ダメージ : dMax/d * 60%]</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>キホンシャテイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">熱 lv1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ヒットした距離が近ければ近いほど追加でダメージを与える。
+ヒットした距離を[ｄ]とし(dの最小値は4)、基本射程を[dMax]とすると、
+[追加ダメージ : dMax/d * 50%]</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>キホンシャテイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electro Beam mk1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本ダメージ間隔</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>電力 lv1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+余剰電力量によって性能が上昇する。
+余剰電力を[i]とすると(iの上限は3)、
+[基本単発ダメージ : 100 + 30 * i]
+[基本攻撃間隔 : 4 - 2 * (i - 2)]
+[基本弾速 : 40 + 10 * (i - 1)]
+[基本射程 : 80 + 20 * (i - 1)]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セイノウヘンカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>キホンタンパツカリョク</t>
+    </rPh>
+    <rPh sb="74" eb="80">
+      <t>キホンコウゲキカンカク</t>
+    </rPh>
+    <rPh sb="101" eb="105">
+      <t>キホンダンソク</t>
+    </rPh>
+    <rPh sb="128" eb="132">
+      <t>キホンシャテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>電力 lv2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+余剰電力量によって性能が上昇する。
+余剰電力を[i]とすると(iの上限は5)、
+[基本単発ダメージ : 120 + 40 * i]
+[基本攻撃間隔 : 6 - 1 * (i - 2)]
+[基本弾速 : 50 + 10 * (i - 1)]
+[基本射程 : 90 + 15 * (i - 1)]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セイノウヘンカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>キホンタンパツカリョク</t>
+    </rPh>
+    <rPh sb="74" eb="80">
+      <t>キホンコウゲキカンカク</t>
+    </rPh>
+    <rPh sb="101" eb="105">
+      <t>キホンダンソク</t>
+    </rPh>
+    <rPh sb="128" eb="132">
+      <t>キホンシャテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electro Beam mk2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中和 lv1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+シールドにヒットした場合さらに追加ダメージを与える。
+[追加ダメージ : 150%]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>チュウワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中和 lv2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+シールドにヒットした場合さらに追加ダメージを与える。
+[追加ダメージ : 250%]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>チュウワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">電力 lv1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>余剰電力量によって性能が上昇する。
+余剰電力を[i]とすると(iの上限は4)、
+[基本単発ダメージ : 40 + 5 * i]
+[基本ダメージ間隔 : 0.7 - 0.1 * (i - 2)]
+[基本ヒット数 : 2 + 0.5 * (i - 1)]
+[基本発射間隔 : 6 - 0.6 * (i - 2)]
+[基本射程 : 30 + 8 * (i - 1)]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>タンパツ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>キホンハッシャ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>hassya</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">電力 lv2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>余剰電力量によって性能が上昇する。
+余剰電力を[i]とすると(iの上限は6)、
+[基本単発ダメージ : 45 + 8 * i]
+[基本ダメージ間隔 : 0.65 - 0.8 * (i - 2)]
+[基本ヒット数 : 3 + 0.5 * i]
+[基本発射間隔 : 6.5 - 0.8 * (i - 3)]
+[基本射程 : 35 + 8 * (i - 1)]</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>デンリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>タンパツ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>キホンハッシャ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>hassya</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>カンカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -839,10 +1163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,13 +1199,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -900,6 +1217,22 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -921,59 +1254,73 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1006,236 +1353,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <border>
         <top style="thin">
@@ -1285,7 +1436,29 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1303,7 +1476,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1321,7 +1494,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="182" formatCode="0.00_ "/>
+      <numFmt numFmtId="176" formatCode="0.00_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1476,12 +1649,28 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
@@ -1495,6 +1684,226 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1516,6 +1925,219 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1523,6 +2145,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1537,12 +2175,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -1556,56 +2196,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:M27" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:M27" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <autoFilter ref="B3:M27"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID" dataDxfId="26"/>
-    <tableColumn id="2" name="名前" dataDxfId="25"/>
-    <tableColumn id="11" name="電力_x000a_(コスト)" dataDxfId="24"/>
-    <tableColumn id="3" name="基本単発ダメージ" dataDxfId="23"/>
-    <tableColumn id="10" name="基本同時発射数" dataDxfId="22"/>
-    <tableColumn id="4" name="基本発射間隔" dataDxfId="21"/>
-    <tableColumn id="5" name="基本弾速" dataDxfId="20"/>
-    <tableColumn id="6" name="基本射程" dataDxfId="19"/>
-    <tableColumn id="7" name="基本dps" dataDxfId="18">
+    <tableColumn id="1" name="ID" dataDxfId="44"/>
+    <tableColumn id="2" name="名前" dataDxfId="43"/>
+    <tableColumn id="11" name="電力_x000a_(コスト)" dataDxfId="42"/>
+    <tableColumn id="3" name="基本単発ダメージ" dataDxfId="41"/>
+    <tableColumn id="10" name="基本同時発射数" dataDxfId="40"/>
+    <tableColumn id="4" name="基本発射間隔" dataDxfId="39"/>
+    <tableColumn id="5" name="基本弾速" dataDxfId="38"/>
+    <tableColumn id="6" name="基本射程" dataDxfId="37"/>
+    <tableColumn id="7" name="基本dps" dataDxfId="36">
       <calculatedColumnFormula>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="弾寿命_x000a_(内部)" dataDxfId="17">
+    <tableColumn id="8" name="弾寿命_x000a_(内部)" dataDxfId="35">
       <calculatedColumnFormula>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="総合値" dataDxfId="16">
+    <tableColumn id="12" name="総合値" dataDxfId="34">
       <calculatedColumnFormula>(1-($D4/10))+($E4/500)+($F4/5)+(1-($G4/10))+($H4/100)+($I4/200)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="特殊効果" dataDxfId="27"/>
+    <tableColumn id="9" name="特殊効果" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル14" displayName="テーブル14" ref="B3:M27" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="B3:M27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル14" displayName="テーブル14" ref="B3:N25" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="B3:N25"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="ID" dataDxfId="28"/>
+    <tableColumn id="2" name="名前" dataDxfId="27"/>
+    <tableColumn id="11" name="電力_x000a_(コスト)" dataDxfId="26"/>
+    <tableColumn id="3" name="基本単発ダメージ" dataDxfId="25"/>
+    <tableColumn id="10" name="基本ダメージ間隔" dataDxfId="24"/>
+    <tableColumn id="13" name="基本ヒット数" dataDxfId="23"/>
+    <tableColumn id="4" name="基本照射時間" dataDxfId="22">
+      <calculatedColumnFormula>F4*G4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="基本発射間隔" dataDxfId="21"/>
+    <tableColumn id="6" name="基本射程" dataDxfId="20"/>
+    <tableColumn id="7" name="基本dps" dataDxfId="19">
+      <calculatedColumnFormula>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="総照射_x000a_ダメージ" dataDxfId="18">
+      <calculatedColumnFormula>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="総合値" dataDxfId="17">
+      <calculatedColumnFormula>(1-($D4/10))+($E4/200)+(1-($F4/2))+($G4/10)+(1-($I4/10))+($J4/100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="特殊効果" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="B3:M4" insertRow="1" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+  <autoFilter ref="B3:M4"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" name="名前" dataDxfId="10"/>
-    <tableColumn id="11" name="電力_x000a_(コスト)" dataDxfId="9"/>
-    <tableColumn id="3" name="基本単発ダメージ" dataDxfId="8"/>
-    <tableColumn id="10" name="ダメージ間隔" dataDxfId="7"/>
-    <tableColumn id="4" name="基本照射時間" dataDxfId="6"/>
-    <tableColumn id="5" name="基本発射間隔" dataDxfId="0"/>
-    <tableColumn id="6" name="基本射程" dataDxfId="5"/>
-    <tableColumn id="7" name="基本dps" dataDxfId="4">
-      <calculatedColumnFormula>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</calculatedColumnFormula>
+    <tableColumn id="1" name="ID" dataDxfId="15"/>
+    <tableColumn id="2" name="名前" dataDxfId="14"/>
+    <tableColumn id="11" name="電力_x000a_(コスト)" dataDxfId="13"/>
+    <tableColumn id="3" name="基本単発ダメージ" dataDxfId="12"/>
+    <tableColumn id="10" name="基本同時発射数" dataDxfId="11"/>
+    <tableColumn id="4" name="基本発射間隔" dataDxfId="10"/>
+    <tableColumn id="5" name="基本弾速" dataDxfId="9"/>
+    <tableColumn id="6" name="基本射程" dataDxfId="8"/>
+    <tableColumn id="7" name="基本dps" dataDxfId="7">
+      <calculatedColumnFormula>(テーブル13[[#This Row],[基本単発ダメージ]] *テーブル13[[#This Row],[基本同時発射数]])/テーブル13[[#This Row],[基本発射間隔]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="総照射_x000a_ダメージ" dataDxfId="3">
-      <calculatedColumnFormula>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</calculatedColumnFormula>
+    <tableColumn id="8" name="弾寿命_x000a_(内部)" dataDxfId="6">
+      <calculatedColumnFormula>テーブル13[[#This Row],[基本射程]]/テーブル13[[#This Row],[基本弾速]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="総合値" dataDxfId="2">
+    <tableColumn id="12" name="総合値" dataDxfId="5">
       <calculatedColumnFormula>(1-($D4/10))+($E4/500)+($F4/5)+(1-($G4/10))+($H4/100)+($I4/200)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="特殊効果" dataDxfId="1"/>
+    <tableColumn id="9" name="特殊効果" dataDxfId="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1896,48 +2566,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1948,13 +2618,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>3</v>
@@ -1969,13 +2639,13 @@
         <v>10</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>8</v>
@@ -1998,11 +2668,11 @@
       <c r="I4" s="7">
         <v>100</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>50</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>2.5</v>
       </c>
@@ -2014,7 +2684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>9</v>
@@ -2037,15 +2707,15 @@
       <c r="I5" s="7">
         <v>120</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>80</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>2</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <f t="shared" si="0"/>
         <v>3.02</v>
       </c>
@@ -2053,7 +2723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2062,21 +2732,21 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="16" t="e">
+      <c r="J6" s="14" t="e">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="17" t="e">
+      <c r="K6" s="15" t="e">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
@@ -2099,15 +2769,15 @@
       <c r="I7" s="7">
         <v>80</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>50</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="15">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
@@ -2115,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -2138,15 +2808,15 @@
       <c r="I8" s="7">
         <v>90</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>60</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>1.3846153846153846</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="15">
         <f t="shared" si="0"/>
         <v>3.22</v>
       </c>
@@ -2154,7 +2824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2163,21 +2833,21 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="16" t="e">
+      <c r="J9" s="14" t="e">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="17" t="e">
+      <c r="K9" s="15" t="e">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -2200,15 +2870,15 @@
       <c r="I10" s="7">
         <v>40</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>100</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>0.8</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="15">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
@@ -2216,7 +2886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2239,15 +2909,15 @@
       <c r="I11" s="7">
         <v>45</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>150</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>0.75</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="15">
         <f t="shared" si="0"/>
         <v>2.645</v>
       </c>
@@ -2255,7 +2925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2264,21 +2934,21 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="16" t="e">
+      <c r="J12" s="14" t="e">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="17" t="e">
+      <c r="K12" s="15" t="e">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="41">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
         <v>15</v>
@@ -2301,23 +2971,23 @@
       <c r="I13" s="7">
         <v>150</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>50</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>1.875</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="15">
         <f>(1-($D13/10))+($E13/500)+($F13/5)+($G13/10)+($H13/100)+($I13/200)</f>
         <v>3.25</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="41">
       <c r="B14" s="9"/>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -2340,23 +3010,23 @@
       <c r="I14" s="7">
         <v>200</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>50</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>2</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="15">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M14" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2365,21 +3035,21 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="16" t="e">
+      <c r="J15" s="14" t="e">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="17" t="e">
+      <c r="K15" s="15" t="e">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="41">
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
         <v>18</v>
@@ -2402,23 +3072,23 @@
       <c r="I16" s="7">
         <v>70</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>10</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>1.4</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="15">
         <f t="shared" si="0"/>
         <v>2.4300000000000002</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="41">
       <c r="B17" s="9"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
@@ -2441,23 +3111,23 @@
       <c r="I17" s="7">
         <v>80</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>10</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="15">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2466,21 +3136,21 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="16" t="e">
+      <c r="J18" s="14" t="e">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="17" t="e">
+      <c r="K18" s="15" t="e">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="89">
       <c r="B19" s="9"/>
       <c r="C19" s="7" t="s">
         <v>20</v>
@@ -2503,23 +3173,23 @@
       <c r="I19" s="7">
         <v>80</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>25</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>2</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="15">
         <f t="shared" si="0"/>
         <v>2.4999999999999996</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="M19" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="89">
       <c r="B20" s="8"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
@@ -2542,23 +3212,23 @@
       <c r="I20" s="7">
         <v>90</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>20</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>1.8</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="15">
         <f t="shared" si="0"/>
         <v>2.29</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="M20" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2567,21 +3237,21 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="16" t="e">
+      <c r="J21" s="14" t="e">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="17" t="e">
+      <c r="K21" s="15" t="e">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="53">
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
@@ -2604,26 +3274,26 @@
       <c r="I22" s="7">
         <v>120</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>25</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="15">
         <f t="shared" si="0"/>
         <v>2.6500000000000004</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="54" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="53">
       <c r="B23" s="9"/>
       <c r="C23" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" s="7">
         <v>8</v>
@@ -2643,23 +3313,23 @@
       <c r="I23" s="7">
         <v>120</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>25</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>2.4</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="15">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="9"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2668,24 +3338,24 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="16" t="e">
+      <c r="J24" s="14" t="e">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="17" t="e">
+      <c r="K24" s="15" t="e">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="41">
       <c r="B25" s="9"/>
       <c r="C25" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="7">
         <v>4</v>
@@ -2705,26 +3375,26 @@
       <c r="I25" s="7">
         <v>100</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>2</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="15">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="41">
       <c r="B26" s="9"/>
       <c r="C26" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="7">
         <v>8</v>
@@ -2744,23 +3414,23 @@
       <c r="I26" s="7">
         <v>120</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="14">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>30</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="15">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>2.1818181818181817</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="15">
         <f t="shared" si="0"/>
         <v>2.35</v>
       </c>
-      <c r="M26" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="M26" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="9"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2769,15 +3439,15 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="16" t="e">
+      <c r="J27" s="14" t="e">
         <f>(テーブル1[[#This Row],[基本単発ダメージ]] *テーブル1[[#This Row],[基本同時発射数]])/テーブル1[[#This Row],[基本発射間隔]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="17" t="e">
+      <c r="K27" s="15" t="e">
         <f>テーブル1[[#This Row],[基本射程]]/テーブル1[[#This Row],[基本弾速]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2789,59 +3459,65 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:14" ht="29">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2852,40 +3528,43 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7">
         <v>50</v>
@@ -2894,508 +3573,776 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="7">
+        <f>F4*G4</f>
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="7">
         <v>4</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>40</v>
       </c>
-      <c r="J4" s="16">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>50</v>
-      </c>
-      <c r="K4" s="17">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>200</v>
-      </c>
-      <c r="L4" s="13">
-        <f>(1-($D4/10))+($E4/500)+($F4/5)+(1-($G4/10))+($H4/100)+($I4/200)</f>
-        <v>2.04</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>27.272727272727273</v>
+      </c>
+      <c r="L4" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>150</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M25" si="0">(1-($D4/10))+($E4/200)+(1-($F4/2))+($G4/10)+(1-($I4/10))+($J4/100)</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="7">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7">
+        <f t="shared" ref="H5:H25" si="1">F5*G5</f>
+        <v>1.6</v>
+      </c>
+      <c r="I5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
-        <v>50</v>
-      </c>
-      <c r="J5" s="16">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>80</v>
-      </c>
-      <c r="K5" s="17">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>320</v>
-      </c>
-      <c r="L5" s="17">
-        <f>(1-($D5/10))+($E5/500)+($F5/5)+(1-($G5/10))+($H5/100)+($I5/200)</f>
-        <v>1.85</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="J5" s="7">
+        <v>45</v>
+      </c>
+      <c r="K5" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="L5" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>260</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9750000000000005</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J6" s="7"/>
+      <c r="K6" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L6" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>60</v>
+      </c>
+      <c r="K7" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="L7" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>100</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>140</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J8" s="7">
+        <v>70</v>
+      </c>
+      <c r="K8" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>42.424242424242429</v>
+      </c>
+      <c r="L8" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>140</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="0"/>
+        <v>3.17</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J9" s="7"/>
+      <c r="K9" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L9" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6</v>
+      </c>
+      <c r="J10" s="7">
+        <v>50</v>
+      </c>
+      <c r="K10" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="L10" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>300</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="G11" s="7">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>55</v>
+      </c>
+      <c r="K11" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>51.612903225806448</v>
+      </c>
+      <c r="L11" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>480</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2250000000000005</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J12" s="7"/>
+      <c r="K12" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L12" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="41">
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="J13" s="7">
+        <v>50</v>
+      </c>
+      <c r="K13" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>28.30188679245283</v>
+      </c>
+      <c r="L13" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>150</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="41">
       <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>55</v>
+      </c>
+      <c r="K14" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>40</v>
+      </c>
+      <c r="L14" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>240</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J15" s="7"/>
+      <c r="K15" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L15" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="53">
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>20</v>
+      </c>
+      <c r="K16" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="L16" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>300</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="53">
       <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6</v>
+      </c>
+      <c r="J17" s="7">
+        <v>16</v>
+      </c>
+      <c r="K17" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>43.75</v>
+      </c>
+      <c r="L17" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>350</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.21</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J18" s="7"/>
+      <c r="K18" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L18" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="2:14" ht="101">
       <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6</v>
+      </c>
+      <c r="J19" s="7">
+        <v>30</v>
+      </c>
+      <c r="K19" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>10.810810810810811</v>
+      </c>
+      <c r="L19" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>80</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="101">
       <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="J20" s="7">
+        <v>35</v>
+      </c>
+      <c r="K20" s="14">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
+        <v>15.976331360946746</v>
+      </c>
+      <c r="L20" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>135</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J21" s="7"/>
+      <c r="K21" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
+      <c r="L21" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="9"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J22" s="7"/>
+      <c r="K22" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L22" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="9"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J23" s="7"/>
+      <c r="K23" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L23" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="9"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J24" s="7"/>
+      <c r="K24" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L24" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="9"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
+      <c r="J25" s="7"/>
+      <c r="K25" s="14" t="e">
+        <f>(テーブル14[[#This Row],[基本単発ダメージ]] *テーブル14[[#This Row],[基本ヒット数]])/(テーブル14[[#This Row],[基本照射時間]]+テーブル14[[#This Row],[基本発射間隔]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B26" s="9"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B27" s="9"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="16" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]] *(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]/テーブル14[[#This Row],[基本発射間隔]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="17" t="e">
-        <f>テーブル14[[#This Row],[基本単発ダメージ]]*(1/テーブル14[[#This Row],[ダメージ間隔]])*テーブル14[[#This Row],[基本照射時間]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="4"/>
+      <c r="L25" s="15">
+        <f>テーブル14[[#This Row],[基本単発ダメージ]]*テーブル14[[#This Row],[基本ヒット数]]</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3403,35 +4350,127 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/仕様/20170114_武器仕様.xlsx
+++ b/仕様/20170114_武器仕様.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20180" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20175" windowHeight="16755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="武器 物理系" sheetId="1" r:id="rId1"/>
     <sheet name="武器 光学系" sheetId="5" r:id="rId2"/>
     <sheet name="武器 その他" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1359,14 +1359,14 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1388,17 +1388,223 @@
   </cellStyles>
   <dxfs count="49">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1418,6 +1624,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1433,219 +1646,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2253,27 +2253,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="B3:M4" insertRow="1" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル13" displayName="テーブル13" ref="B3:M4" insertRow="1" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="B3:M4"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" name="名前" dataDxfId="14"/>
-    <tableColumn id="11" name="電力_x000a_(コスト)" dataDxfId="13"/>
-    <tableColumn id="3" name="基本単発ダメージ" dataDxfId="12"/>
-    <tableColumn id="10" name="基本同時発射数" dataDxfId="11"/>
-    <tableColumn id="4" name="基本発射間隔" dataDxfId="10"/>
-    <tableColumn id="5" name="基本弾速" dataDxfId="9"/>
-    <tableColumn id="6" name="基本射程" dataDxfId="8"/>
-    <tableColumn id="7" name="基本dps" dataDxfId="7">
+    <tableColumn id="1" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" name="名前" dataDxfId="10"/>
+    <tableColumn id="11" name="電力_x000a_(コスト)" dataDxfId="9"/>
+    <tableColumn id="3" name="基本単発ダメージ" dataDxfId="8"/>
+    <tableColumn id="10" name="基本同時発射数" dataDxfId="7"/>
+    <tableColumn id="4" name="基本発射間隔" dataDxfId="6"/>
+    <tableColumn id="5" name="基本弾速" dataDxfId="5"/>
+    <tableColumn id="6" name="基本射程" dataDxfId="4"/>
+    <tableColumn id="7" name="基本dps" dataDxfId="3">
       <calculatedColumnFormula>(テーブル13[[#This Row],[基本単発ダメージ]] *テーブル13[[#This Row],[基本同時発射数]])/テーブル13[[#This Row],[基本発射間隔]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="弾寿命_x000a_(内部)" dataDxfId="6">
+    <tableColumn id="8" name="弾寿命_x000a_(内部)" dataDxfId="2">
       <calculatedColumnFormula>テーブル13[[#This Row],[基本射程]]/テーブル13[[#This Row],[基本弾速]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="総合値" dataDxfId="5">
+    <tableColumn id="12" name="総合値" dataDxfId="1">
       <calculatedColumnFormula>(1-($D4/10))+($E4/500)+($F4/5)+(1-($G4/10))+($H4/100)+($I4/200)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="特殊効果" dataDxfId="4"/>
+    <tableColumn id="9" name="特殊効果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2575,39 +2575,39 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="29">
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>8</v>
@@ -2684,7 +2684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>9</v>
@@ -2723,7 +2723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
         <v>16</v>
@@ -2785,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -2824,7 +2824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -2886,7 +2886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2925,7 +2925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="41">
+    <row r="13" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
         <v>15</v>
@@ -2987,7 +2987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="41">
+    <row r="14" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -3022,11 +3022,11 @@
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="41">
+    <row r="16" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
         <v>18</v>
@@ -3088,7 +3088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="41">
+    <row r="17" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
@@ -3127,7 +3127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" ht="89">
+    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="7" t="s">
         <v>20</v>
@@ -3185,11 +3185,11 @@
         <f t="shared" si="0"/>
         <v>2.4999999999999996</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="89">
+    <row r="20" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="7" t="s">
         <v>21</v>
@@ -3224,11 +3224,11 @@
         <f t="shared" si="0"/>
         <v>2.29</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:13" ht="53">
+    <row r="22" spans="2:13" ht="54" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
         <v>22</v>
@@ -3290,7 +3290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="53">
+    <row r="23" spans="2:13" ht="54" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="7" t="s">
         <v>26</v>
@@ -3329,7 +3329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="2:13" ht="41">
+    <row r="25" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="7" t="s">
         <v>28</v>
@@ -3391,7 +3391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="41">
+    <row r="26" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="7" t="s">
         <v>29</v>
@@ -3426,11 +3426,11 @@
         <f t="shared" si="0"/>
         <v>2.35</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3459,9 +3459,9 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3478,46 +3478,46 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="29">
+    <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>38</v>
@@ -3601,7 +3601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>39</v>
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
         <v>46</v>
@@ -3714,7 +3714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>48</v>
@@ -3757,7 +3757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
         <v>49</v>
@@ -3827,7 +3827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>50</v>
@@ -3870,7 +3870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="41">
+    <row r="13" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
         <v>52</v>
@@ -3936,11 +3936,11 @@
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="41">
+    <row r="14" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="7" t="s">
         <v>53</v>
@@ -3979,11 +3979,11 @@
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="53">
+    <row r="16" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
         <v>55</v>
@@ -4053,7 +4053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="53">
+    <row r="17" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="7" t="s">
         <v>56</v>
@@ -4096,7 +4096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14" ht="101">
+    <row r="19" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="7" t="s">
         <v>59</v>
@@ -4166,7 +4166,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="101">
+    <row r="20" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="7" t="s">
         <v>63</v>
@@ -4209,7 +4209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -4373,39 +4373,39 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="29">
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
